--- a/6.交付四期/0.甲方反馈/监护数据.xlsx
+++ b/6.交付四期/0.甲方反馈/监护数据.xlsx
@@ -1,22 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\项目工作目录\01.个人工作目录\心电系统\深圳邦健项目\设计\监护数据\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="600" yWindow="105" windowWidth="20475" windowHeight="9630"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="监护数据" sheetId="1" r:id="rId1"/>
+    <sheet name="AbnormalFlags" sheetId="4" r:id="rId2"/>
+    <sheet name="ObsResultStatus" sheetId="5" r:id="rId3"/>
+    <sheet name="数值类型" sheetId="2" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511" refMode="R1C1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="650" uniqueCount="421">
   <si>
     <t>心率</t>
   </si>
@@ -882,9 +888,6 @@
     <t>身高</t>
   </si>
   <si>
-    <t>height</t>
-  </si>
-  <si>
     <t>体重</t>
   </si>
   <si>
@@ -892,9 +895,6 @@
   </si>
   <si>
     <t>血型</t>
-  </si>
-  <si>
-    <t>bloodType</t>
   </si>
   <si>
     <t>出生年</t>
@@ -1103,6 +1103,448 @@
   </si>
   <si>
     <t>TD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>height</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bloodType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HL7V2对应数据类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>值</t>
+  </si>
+  <si>
+    <t>说明</t>
+  </si>
+  <si>
+    <t>AD</t>
+  </si>
+  <si>
+    <t>Address地址</t>
+  </si>
+  <si>
+    <t>CE</t>
+  </si>
+  <si>
+    <t>Coded Entry编码项</t>
+  </si>
+  <si>
+    <t>CF</t>
+  </si>
+  <si>
+    <t>Coded Element With Formatted Values具有格式化数值的编码项</t>
+  </si>
+  <si>
+    <t>CK</t>
+  </si>
+  <si>
+    <t>Composite ID With Check Digit检验码复合ID</t>
+  </si>
+  <si>
+    <t>CN</t>
+  </si>
+  <si>
+    <t>Composite ID And Name复合ID 及姓名</t>
+  </si>
+  <si>
+    <t>CP</t>
+  </si>
+  <si>
+    <t>Composite Price复合价格</t>
+  </si>
+  <si>
+    <t>CX</t>
+  </si>
+  <si>
+    <t>Extended Composite ID With Check Digit检验码扩展复合ID</t>
+  </si>
+  <si>
+    <t>DT</t>
+  </si>
+  <si>
+    <t>Date日期</t>
+  </si>
+  <si>
+    <t>ED</t>
+  </si>
+  <si>
+    <t>Encapsulated Data压缩数据</t>
+  </si>
+  <si>
+    <t>FT</t>
+  </si>
+  <si>
+    <t>Formatted Text (Display)格式化文字（显示）</t>
+  </si>
+  <si>
+    <t>MO</t>
+  </si>
+  <si>
+    <t>Money金额</t>
+  </si>
+  <si>
+    <t>NM</t>
+  </si>
+  <si>
+    <t>Numeric数值</t>
+  </si>
+  <si>
+    <t>PN</t>
+  </si>
+  <si>
+    <t>RP</t>
+  </si>
+  <si>
+    <t>SN</t>
+  </si>
+  <si>
+    <t>ST</t>
+  </si>
+  <si>
+    <t>TM</t>
+  </si>
+  <si>
+    <t>TN</t>
+  </si>
+  <si>
+    <t>TS</t>
+  </si>
+  <si>
+    <t>TX</t>
+  </si>
+  <si>
+    <t>XAD</t>
+  </si>
+  <si>
+    <t>XCN</t>
+  </si>
+  <si>
+    <t>XON</t>
+  </si>
+  <si>
+    <t>XPN</t>
+  </si>
+  <si>
+    <t>XTN</t>
+  </si>
+  <si>
+    <t>Person Name个人姓名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reference Pointer参考指标</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Structured Numeric结构化数值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>String Data.字符资料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Time时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Telephone Number电话号码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Time Stamp (Date &amp; Time)时间印记（日期与时间）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Text Data (Display)文字资料（显示）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Extended Address扩展地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Extended Composite Name And Number For Persons扩展复合个人姓名和号码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Extended Composite Name And Number For Organizations扩展组织复合姓名和号码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Extended Person Name扩展个人姓名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Extended Telecommunications Number扩展电信号码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>L Below low normal</t>
+  </si>
+  <si>
+    <t>低正常值之下</t>
+  </si>
+  <si>
+    <t>H Above high normal</t>
+  </si>
+  <si>
+    <t>高正常值之上</t>
+  </si>
+  <si>
+    <t>LL Below lower panic limits</t>
+  </si>
+  <si>
+    <t>低极限值之下</t>
+  </si>
+  <si>
+    <t>HH Above upper panic limits</t>
+  </si>
+  <si>
+    <t>高极限值之上</t>
+  </si>
+  <si>
+    <t>&lt; Below absolute low-off instrument scale</t>
+  </si>
+  <si>
+    <t>仪器刻度尺最小值以下</t>
+  </si>
+  <si>
+    <t>&gt; Above absolute high-off instrument scale</t>
+  </si>
+  <si>
+    <t>仪器刻度尺最大值以上</t>
+  </si>
+  <si>
+    <t>N Normal (applies to non-numeric results)</t>
+  </si>
+  <si>
+    <t>正常（用于非数值结果）</t>
+  </si>
+  <si>
+    <t>A Abnormal (applies to non-numeric results)</t>
+  </si>
+  <si>
+    <t>异常（用于非数值结果）</t>
+  </si>
+  <si>
+    <t>AA Very abnormal (applies to non-numeric units, analogous to panic limits for numeric units)</t>
+  </si>
+  <si>
+    <t>极其不正常（用于非数值单位，与数值单位的极端值类似）</t>
+  </si>
+  <si>
+    <t>null No range defined, or normal ranges don't apply</t>
+  </si>
+  <si>
+    <t>非定义范围，或正常值范围不适用</t>
+  </si>
+  <si>
+    <t>U Significant change up</t>
+  </si>
+  <si>
+    <t>明显好转</t>
+  </si>
+  <si>
+    <t>D Significant change down</t>
+  </si>
+  <si>
+    <t>明显变差</t>
+  </si>
+  <si>
+    <t>B Better--use when direction not relevant</t>
+  </si>
+  <si>
+    <t>较好-当方向无关时使用</t>
+  </si>
+  <si>
+    <t>W Worse--use when direction not relevant</t>
+  </si>
+  <si>
+    <t>较差-当方向无关时使用</t>
+  </si>
+  <si>
+    <t>S Susceptible. Indicates for microbiology susceptibilities only.</t>
+  </si>
+  <si>
+    <t>敏感-仅用于指明微生物敏感性</t>
+  </si>
+  <si>
+    <t>R Resistant. Indicates for microbiology susceptibilities only.</t>
+  </si>
+  <si>
+    <t>抵抗-仅用于指明微生物敏感性</t>
+  </si>
+  <si>
+    <t>I Intermediate. Indicates for microbiology susceptibilities only.</t>
+  </si>
+  <si>
+    <t>中间状态-仅用于指明微生物敏感性</t>
+  </si>
+  <si>
+    <t>MS Moderately susceptible. Indicates for microbiology susceptibilities only.</t>
+  </si>
+  <si>
+    <t>稍微敏感-仅用于指明微生物</t>
+  </si>
+  <si>
+    <t>C Record coming over is a correction and thus replaces a final result</t>
+  </si>
+  <si>
+    <t>得出的记录是一个校正值，因此替代最终结果</t>
+  </si>
+  <si>
+    <t>D Deletes the OBX record</t>
+  </si>
+  <si>
+    <t>删除OBX 记录</t>
+  </si>
+  <si>
+    <t>F Final results; Can only be changed with a corrected result.</t>
+  </si>
+  <si>
+    <t>最终结果；仅能和校正的结果交换</t>
+  </si>
+  <si>
+    <t>I Specimen in lab; results pending</t>
+  </si>
+  <si>
+    <t>实验室标本；结果待决</t>
+  </si>
+  <si>
+    <t>N Not asked; used to affirmatively document that the observation identified in the OBX was not sought</t>
+  </si>
+  <si>
+    <t>when the universal service ID in OBR-4 implies that it would be sought.</t>
+  </si>
+  <si>
+    <t>不要求，当OBR-4 中指明要找的通用部门ID 时，用在证实OBX 中未找到观察，</t>
+  </si>
+  <si>
+    <t>O Order detail description only (no result)</t>
+  </si>
+  <si>
+    <t>仅要求详细叙述（无结果）</t>
+  </si>
+  <si>
+    <t>P Preliminary results</t>
+  </si>
+  <si>
+    <t>初步结果</t>
+  </si>
+  <si>
+    <t>R Results entered -- not verified</t>
+  </si>
+  <si>
+    <t>结果输入——尚未证实</t>
+  </si>
+  <si>
+    <t>S Partial results</t>
+  </si>
+  <si>
+    <t>部分结果</t>
+  </si>
+  <si>
+    <t>X Results cannot be obtained for this observation</t>
+  </si>
+  <si>
+    <t>无法得到观察结果</t>
+  </si>
+  <si>
+    <t>U Results status change to final without retransmitting results already sent as ‘preliminary.’ E.g.,</t>
+  </si>
+  <si>
+    <t>radiology changes status from preliminary to final</t>
+  </si>
+  <si>
+    <t>结果已经变为最终结果，但是没有将已作为初步结果传送的内容重新发送.如：放射学结果的状态从预期</t>
+  </si>
+  <si>
+    <t>到最终结果</t>
+  </si>
+  <si>
+    <t>W Post original as wrong, e.g., transmitted for wrong patient</t>
+  </si>
+  <si>
+    <t>发送错误，如：传送给别的患者</t>
+  </si>
+  <si>
+    <t>不正常标识值说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>观察结果状态说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ED</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>整张监护仪报告PDF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>整张监护报告图片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>^image^jpeg^BASE64^数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>^application^pdf^BASE64^数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>^text^x-hl7-cda-level-one^BASE64^数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>整张监护数据图片采用base位编码方式做转换</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>整张监护数据PDF数据采用base位编码方式做转换</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>波形的xml数据以base64位编码方式做转换</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>monitorDataImage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>monitorDataPdf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>monitorDataWave</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>含波形的XML</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1110,7 +1552,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1171,8 +1613,17 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1191,8 +1642,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -1280,13 +1743,28 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1380,6 +1858,51 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1390,12 +1913,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1437,7 +1963,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1472,7 +1998,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1681,10 +2207,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:E130"/>
+  <dimension ref="A2:G134"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="B48" sqref="B48"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A126" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A135" sqref="A135"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1693,22 +2220,25 @@
     <col min="2" max="2" width="30.625" customWidth="1"/>
     <col min="3" max="3" width="11.875" customWidth="1"/>
     <col min="4" max="4" width="24.5" customWidth="1"/>
-    <col min="5" max="5" width="59.125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="24.5" style="38" customWidth="1"/>
+    <col min="6" max="6" width="43.875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="25.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="D2" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="38.25" x14ac:dyDescent="0.15">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="38.25" x14ac:dyDescent="0.15">
       <c r="D3" s="19" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+        <v>281</v>
+      </c>
+      <c r="E3" s="19"/>
+    </row>
+    <row r="5" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A5" s="13" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B5" s="13" t="s">
         <v>3</v>
@@ -1719,20 +2249,25 @@
       <c r="D5" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="E5" s="14" t="s">
+      <c r="E5" s="36" t="s">
+        <v>287</v>
+      </c>
+      <c r="F5" s="14" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="D6" s="19"/>
-    </row>
-    <row r="7" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="E6" s="19"/>
+    </row>
+    <row r="7" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="30" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D7" s="19"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="E7" s="19"/>
+    </row>
+    <row r="8" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>1</v>
       </c>
@@ -1745,11 +2280,14 @@
       <c r="D8" s="20" t="s">
         <v>113</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="E8" s="20" t="s">
+        <v>407</v>
+      </c>
+      <c r="F8" s="6" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
         <v>4</v>
       </c>
@@ -1760,11 +2298,14 @@
       <c r="D9" s="19" t="s">
         <v>113</v>
       </c>
-      <c r="E9" s="8" t="s">
+      <c r="E9" s="20" t="s">
+        <v>407</v>
+      </c>
+      <c r="F9" s="8" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A10" s="7" t="s">
         <v>51</v>
       </c>
@@ -1775,13 +2316,16 @@
         <v>49</v>
       </c>
       <c r="D10" s="19" t="s">
-        <v>269</v>
-      </c>
-      <c r="E10" s="8" t="s">
+        <v>267</v>
+      </c>
+      <c r="E10" s="20" t="s">
+        <v>407</v>
+      </c>
+      <c r="F10" s="8" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A11" s="7" t="s">
         <v>44</v>
       </c>
@@ -1792,11 +2336,14 @@
       <c r="D11" s="19" t="s">
         <v>114</v>
       </c>
-      <c r="E11" s="9" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="E11" s="19" t="s">
+        <v>340</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A12" s="7" t="s">
         <v>54</v>
       </c>
@@ -1809,11 +2356,14 @@
       <c r="D12" s="19" t="s">
         <v>114</v>
       </c>
-      <c r="E12" s="8" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="E12" s="19" t="s">
+        <v>317</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A13" s="7" t="s">
         <v>141</v>
       </c>
@@ -1826,11 +2376,14 @@
       <c r="D13" s="19" t="s">
         <v>115</v>
       </c>
-      <c r="E13" s="8" t="s">
+      <c r="E13" s="19" t="s">
+        <v>317</v>
+      </c>
+      <c r="F13" s="8" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A14" s="7" t="s">
         <v>72</v>
       </c>
@@ -1839,13 +2392,16 @@
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="19" t="s">
-        <v>271</v>
-      </c>
-      <c r="E14" s="8" t="s">
+        <v>269</v>
+      </c>
+      <c r="E14" s="19" t="s">
+        <v>340</v>
+      </c>
+      <c r="F14" s="8" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A15" s="7" t="s">
         <v>73</v>
       </c>
@@ -1854,13 +2410,16 @@
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="19" t="s">
-        <v>271</v>
-      </c>
-      <c r="E15" s="8" t="s">
+        <v>269</v>
+      </c>
+      <c r="E15" s="19" t="s">
+        <v>340</v>
+      </c>
+      <c r="F15" s="8" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A16" s="10" t="s">
         <v>74</v>
       </c>
@@ -1869,20 +2428,25 @@
       </c>
       <c r="C16" s="11"/>
       <c r="D16" s="21" t="s">
-        <v>270</v>
-      </c>
-      <c r="E16" s="12"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
+        <v>268</v>
+      </c>
+      <c r="E16" s="19" t="s">
+        <v>317</v>
+      </c>
+      <c r="F16" s="12"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
       <c r="D17" s="19"/>
-    </row>
-    <row r="18" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="E17" s="19"/>
+    </row>
+    <row r="18" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A18" s="30" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D18" s="19"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="E18" s="19"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A19" s="4" t="s">
         <v>9</v>
       </c>
@@ -1895,11 +2459,14 @@
       <c r="D19" s="20" t="s">
         <v>113</v>
       </c>
-      <c r="E19" s="6" t="s">
+      <c r="E19" s="20" t="s">
+        <v>407</v>
+      </c>
+      <c r="F19" s="6" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A20" s="7" t="s">
         <v>82</v>
       </c>
@@ -1910,11 +2477,14 @@
       <c r="D20" s="19" t="s">
         <v>114</v>
       </c>
-      <c r="E20" s="8" t="s">
+      <c r="E20" s="19" t="s">
+        <v>340</v>
+      </c>
+      <c r="F20" s="8" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A21" s="7" t="s">
         <v>83</v>
       </c>
@@ -1925,11 +2495,14 @@
       <c r="D21" s="19" t="s">
         <v>114</v>
       </c>
-      <c r="E21" s="9" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="E21" s="19" t="s">
+        <v>340</v>
+      </c>
+      <c r="F21" s="9" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A22" s="7" t="s">
         <v>142</v>
       </c>
@@ -1942,11 +2515,14 @@
       <c r="D22" s="19" t="s">
         <v>115</v>
       </c>
-      <c r="E22" s="8" t="s">
+      <c r="E22" s="19" t="s">
+        <v>340</v>
+      </c>
+      <c r="F22" s="8" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A23" s="10" t="s">
         <v>89</v>
       </c>
@@ -1955,20 +2531,25 @@
       </c>
       <c r="C23" s="11"/>
       <c r="D23" s="21" t="s">
-        <v>272</v>
-      </c>
-      <c r="E23" s="12"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
+        <v>270</v>
+      </c>
+      <c r="E23" s="19" t="s">
+        <v>317</v>
+      </c>
+      <c r="F23" s="12"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
       <c r="D24" s="19"/>
-    </row>
-    <row r="25" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="E24" s="19"/>
+    </row>
+    <row r="25" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A25" s="30" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D25" s="19"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="E25" s="19"/>
+    </row>
+    <row r="26" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
         <v>6</v>
       </c>
@@ -1981,11 +2562,14 @@
       <c r="D26" s="20" t="s">
         <v>113</v>
       </c>
-      <c r="E26" s="6" t="s">
+      <c r="E26" s="20" t="s">
+        <v>407</v>
+      </c>
+      <c r="F26" s="6" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A27" s="7" t="s">
         <v>7</v>
       </c>
@@ -1998,11 +2582,14 @@
       <c r="D27" s="19" t="s">
         <v>113</v>
       </c>
-      <c r="E27" s="8" t="s">
+      <c r="E27" s="20" t="s">
+        <v>407</v>
+      </c>
+      <c r="F27" s="8" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A28" s="7" t="s">
         <v>8</v>
       </c>
@@ -2015,11 +2602,14 @@
       <c r="D28" s="19" t="s">
         <v>113</v>
       </c>
-      <c r="E28" s="8" t="s">
+      <c r="E28" s="20" t="s">
+        <v>407</v>
+      </c>
+      <c r="F28" s="8" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A29" s="7" t="s">
         <v>143</v>
       </c>
@@ -2032,11 +2622,14 @@
       <c r="D29" s="19" t="s">
         <v>115</v>
       </c>
-      <c r="E29" s="9" t="s">
+      <c r="E29" s="19" t="s">
+        <v>340</v>
+      </c>
+      <c r="F29" s="9" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A30" s="10" t="s">
         <v>144</v>
       </c>
@@ -2045,20 +2638,25 @@
       </c>
       <c r="C30" s="11"/>
       <c r="D30" s="21" t="s">
-        <v>273</v>
-      </c>
-      <c r="E30" s="12"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
+        <v>271</v>
+      </c>
+      <c r="E30" s="21" t="s">
+        <v>317</v>
+      </c>
+      <c r="F30" s="12"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.15">
       <c r="D31" s="19"/>
-    </row>
-    <row r="32" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="E31" s="19"/>
+    </row>
+    <row r="32" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A32" s="30" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D32" s="19"/>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="E32" s="19"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A33" s="4" t="s">
         <v>14</v>
       </c>
@@ -2071,11 +2669,14 @@
       <c r="D33" s="20" t="s">
         <v>113</v>
       </c>
-      <c r="E33" s="6" t="s">
+      <c r="E33" s="20" t="s">
+        <v>407</v>
+      </c>
+      <c r="F33" s="6" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A34" s="7" t="s">
         <v>15</v>
       </c>
@@ -2088,11 +2689,14 @@
       <c r="D34" s="19" t="s">
         <v>113</v>
       </c>
-      <c r="E34" s="8" t="s">
+      <c r="E34" s="19" t="s">
+        <v>407</v>
+      </c>
+      <c r="F34" s="8" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A35" s="7" t="s">
         <v>16</v>
       </c>
@@ -2105,11 +2709,14 @@
       <c r="D35" s="19" t="s">
         <v>100</v>
       </c>
-      <c r="E35" s="8" t="s">
+      <c r="E35" s="19" t="s">
+        <v>407</v>
+      </c>
+      <c r="F35" s="8" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A36" s="22" t="s">
         <v>101</v>
       </c>
@@ -2120,9 +2727,10 @@
       <c r="D36" s="19" t="s">
         <v>115</v>
       </c>
-      <c r="E36" s="8"/>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="E36" s="19"/>
+      <c r="F36" s="8"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A37" s="22" t="s">
         <v>102</v>
       </c>
@@ -2133,9 +2741,10 @@
       <c r="D37" s="19" t="s">
         <v>114</v>
       </c>
-      <c r="E37" s="8"/>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="E37" s="19"/>
+      <c r="F37" s="8"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A38" s="22" t="s">
         <v>103</v>
       </c>
@@ -2146,9 +2755,10 @@
       <c r="D38" s="19" t="s">
         <v>114</v>
       </c>
-      <c r="E38" s="8"/>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="E38" s="19"/>
+      <c r="F38" s="8"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A39" s="22" t="s">
         <v>104</v>
       </c>
@@ -2159,9 +2769,10 @@
       <c r="D39" s="19" t="s">
         <v>114</v>
       </c>
-      <c r="E39" s="8"/>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="E39" s="19"/>
+      <c r="F39" s="8"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A40" s="22" t="s">
         <v>105</v>
       </c>
@@ -2172,9 +2783,10 @@
       <c r="D40" s="19" t="s">
         <v>114</v>
       </c>
-      <c r="E40" s="8"/>
-    </row>
-    <row r="41" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="E40" s="19"/>
+      <c r="F40" s="8"/>
+    </row>
+    <row r="41" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A41" s="23" t="s">
         <v>106</v>
       </c>
@@ -2185,18 +2797,21 @@
       <c r="D41" s="21" t="s">
         <v>91</v>
       </c>
-      <c r="E41" s="12"/>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="E41" s="21"/>
+      <c r="F41" s="12"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.15">
       <c r="D42" s="19"/>
-    </row>
-    <row r="43" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="E42" s="19"/>
+    </row>
+    <row r="43" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A43" s="30" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D43" s="19"/>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="E43" s="19"/>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A44" s="4" t="s">
         <v>20</v>
       </c>
@@ -2209,11 +2824,14 @@
       <c r="D44" s="20" t="s">
         <v>99</v>
       </c>
-      <c r="E44" s="6" t="s">
+      <c r="E44" s="20" t="s">
+        <v>407</v>
+      </c>
+      <c r="F44" s="6" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A45" s="7" t="s">
         <v>21</v>
       </c>
@@ -2226,16 +2844,19 @@
       <c r="D45" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="E45" s="8" t="s">
+      <c r="E45" s="19" t="s">
+        <v>407</v>
+      </c>
+      <c r="F45" s="8" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A46" s="10" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B46" s="11" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C46" s="11" t="s">
         <v>118</v>
@@ -2243,22 +2864,27 @@
       <c r="D46" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="E46" s="12" t="s">
+      <c r="E46" s="19" t="s">
+        <v>407</v>
+      </c>
+      <c r="F46" s="12" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.15">
       <c r="D47" s="19"/>
-      <c r="E47" s="3"/>
-    </row>
-    <row r="48" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="E47" s="19"/>
+      <c r="F47" s="3"/>
+    </row>
+    <row r="48" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A48" s="30" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D48" s="19"/>
-      <c r="E48" s="3"/>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="E48" s="19"/>
+      <c r="F48" s="3"/>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A49" s="4" t="s">
         <v>24</v>
       </c>
@@ -2271,11 +2897,14 @@
       <c r="D49" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="E49" s="6" t="s">
+      <c r="E49" s="19" t="s">
+        <v>407</v>
+      </c>
+      <c r="F49" s="6" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A50" s="7" t="s">
         <v>27</v>
       </c>
@@ -2288,11 +2917,14 @@
       <c r="D50" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="E50" s="8" t="s">
+      <c r="E50" s="19" t="s">
+        <v>407</v>
+      </c>
+      <c r="F50" s="8" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A51" s="7" t="s">
         <v>29</v>
       </c>
@@ -2305,11 +2937,14 @@
       <c r="D51" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="E51" s="8" t="s">
+      <c r="E51" s="19" t="s">
+        <v>407</v>
+      </c>
+      <c r="F51" s="8" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A52" s="7" t="s">
         <v>143</v>
       </c>
@@ -2322,11 +2957,14 @@
       <c r="D52" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="E52" s="8" t="s">
+      <c r="E52" s="19" t="s">
+        <v>407</v>
+      </c>
+      <c r="F52" s="8" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A53" s="10" t="s">
         <v>145</v>
       </c>
@@ -2335,22 +2973,27 @@
       </c>
       <c r="C53" s="11"/>
       <c r="D53" s="21" t="s">
-        <v>274</v>
-      </c>
-      <c r="E53" s="12"/>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.15">
+        <v>272</v>
+      </c>
+      <c r="E53" s="21" t="s">
+        <v>317</v>
+      </c>
+      <c r="F53" s="12"/>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.15">
       <c r="D54" s="19"/>
-      <c r="E54" s="3"/>
-    </row>
-    <row r="55" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="E54" s="19"/>
+      <c r="F54" s="3"/>
+    </row>
+    <row r="55" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A55" s="30" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D55" s="19"/>
-      <c r="E55" s="3"/>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="E55" s="19"/>
+      <c r="F55" s="3"/>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A56" s="4" t="s">
         <v>24</v>
       </c>
@@ -2363,11 +3006,14 @@
       <c r="D56" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="E56" s="6" t="s">
+      <c r="E56" s="19" t="s">
+        <v>407</v>
+      </c>
+      <c r="F56" s="6" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A57" s="7" t="s">
         <v>27</v>
       </c>
@@ -2380,11 +3026,14 @@
       <c r="D57" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="E57" s="8" t="s">
+      <c r="E57" s="19" t="s">
+        <v>407</v>
+      </c>
+      <c r="F57" s="8" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A58" s="7" t="s">
         <v>29</v>
       </c>
@@ -2397,11 +3046,14 @@
       <c r="D58" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="E58" s="8" t="s">
+      <c r="E58" s="19" t="s">
+        <v>407</v>
+      </c>
+      <c r="F58" s="8" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A59" s="7" t="s">
         <v>32</v>
       </c>
@@ -2414,11 +3066,14 @@
       <c r="D59" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="E59" s="8" t="s">
+      <c r="E59" s="19" t="s">
+        <v>407</v>
+      </c>
+      <c r="F59" s="8" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A60" s="7" t="s">
         <v>33</v>
       </c>
@@ -2431,11 +3086,14 @@
       <c r="D60" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="E60" s="8" t="s">
+      <c r="E60" s="19" t="s">
+        <v>407</v>
+      </c>
+      <c r="F60" s="8" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A61" s="7" t="s">
         <v>153</v>
       </c>
@@ -2448,11 +3106,14 @@
       <c r="D61" s="19" t="s">
         <v>100</v>
       </c>
-      <c r="E61" s="8" t="s">
+      <c r="E61" s="19" t="s">
+        <v>407</v>
+      </c>
+      <c r="F61" s="8" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A62" s="7" t="s">
         <v>154</v>
       </c>
@@ -2465,11 +3126,14 @@
       <c r="D62" s="19" t="s">
         <v>100</v>
       </c>
-      <c r="E62" s="8" t="s">
+      <c r="E62" s="19" t="s">
+        <v>407</v>
+      </c>
+      <c r="F62" s="8" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A63" s="7" t="s">
         <v>37</v>
       </c>
@@ -2482,11 +3146,14 @@
       <c r="D63" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="E63" s="8" t="s">
+      <c r="E63" s="19" t="s">
+        <v>407</v>
+      </c>
+      <c r="F63" s="8" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A64" s="7" t="s">
         <v>36</v>
       </c>
@@ -2499,11 +3166,14 @@
       <c r="D64" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="E64" s="8" t="s">
+      <c r="E64" s="19" t="s">
+        <v>407</v>
+      </c>
+      <c r="F64" s="8" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A65" s="7" t="s">
         <v>158</v>
       </c>
@@ -2514,11 +3184,14 @@
       <c r="D65" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="E65" s="8" t="s">
+      <c r="E65" s="19" t="s">
+        <v>340</v>
+      </c>
+      <c r="F65" s="8" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A66" s="7" t="s">
         <v>159</v>
       </c>
@@ -2529,11 +3202,14 @@
       <c r="D66" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="E66" s="8" t="s">
+      <c r="E66" s="19" t="s">
+        <v>340</v>
+      </c>
+      <c r="F66" s="8" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A67" s="7" t="s">
         <v>120</v>
       </c>
@@ -2546,11 +3222,14 @@
       <c r="D67" s="19" t="s">
         <v>100</v>
       </c>
-      <c r="E67" s="8" t="s">
+      <c r="E67" s="19" t="s">
+        <v>407</v>
+      </c>
+      <c r="F67" s="8" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A68" s="7" t="s">
         <v>143</v>
       </c>
@@ -2563,11 +3242,14 @@
       <c r="D68" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="E68" s="8" t="s">
+      <c r="E68" s="19" t="s">
+        <v>317</v>
+      </c>
+      <c r="F68" s="8" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A69" s="7" t="s">
         <v>145</v>
       </c>
@@ -2576,11 +3258,14 @@
       </c>
       <c r="C69" s="2"/>
       <c r="D69" s="19" t="s">
-        <v>275</v>
-      </c>
-      <c r="E69" s="8"/>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.15">
+        <v>273</v>
+      </c>
+      <c r="E69" s="19" t="s">
+        <v>317</v>
+      </c>
+      <c r="F69" s="8"/>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A70" s="7" t="s">
         <v>162</v>
       </c>
@@ -2589,11 +3274,14 @@
       </c>
       <c r="C70" s="2"/>
       <c r="D70" s="19" t="s">
-        <v>275</v>
-      </c>
-      <c r="E70" s="8"/>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.15">
+        <v>273</v>
+      </c>
+      <c r="E70" s="19" t="s">
+        <v>317</v>
+      </c>
+      <c r="F70" s="8"/>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A71" s="7" t="s">
         <v>164</v>
       </c>
@@ -2602,11 +3290,14 @@
       </c>
       <c r="C71" s="2"/>
       <c r="D71" s="19" t="s">
-        <v>275</v>
-      </c>
-      <c r="E71" s="8"/>
-    </row>
-    <row r="72" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+        <v>273</v>
+      </c>
+      <c r="E71" s="19" t="s">
+        <v>317</v>
+      </c>
+      <c r="F71" s="8"/>
+    </row>
+    <row r="72" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A72" s="10" t="s">
         <v>163</v>
       </c>
@@ -2615,20 +3306,25 @@
       </c>
       <c r="C72" s="11"/>
       <c r="D72" s="21" t="s">
-        <v>275</v>
-      </c>
-      <c r="E72" s="12"/>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.15">
+        <v>273</v>
+      </c>
+      <c r="E72" s="39" t="s">
+        <v>317</v>
+      </c>
+      <c r="F72" s="12"/>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.15">
       <c r="D73" s="19"/>
-    </row>
-    <row r="74" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="E73" s="19"/>
+    </row>
+    <row r="74" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A74" s="30" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D74" s="19"/>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="E74" s="19"/>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A75" s="4" t="s">
         <v>138</v>
       </c>
@@ -2641,11 +3337,14 @@
       <c r="D75" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="E75" s="6" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="E75" s="20" t="s">
+        <v>340</v>
+      </c>
+      <c r="F75" s="6" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A76" s="7" t="s">
         <v>63</v>
       </c>
@@ -2654,13 +3353,16 @@
       </c>
       <c r="C76" s="2"/>
       <c r="D76" s="19" t="s">
-        <v>280</v>
-      </c>
-      <c r="E76" s="8" t="s">
+        <v>278</v>
+      </c>
+      <c r="E76" s="19" t="s">
+        <v>340</v>
+      </c>
+      <c r="F76" s="8" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A77" s="7" t="s">
         <v>64</v>
       </c>
@@ -2671,13 +3373,16 @@
         <v>149</v>
       </c>
       <c r="D77" s="19" t="s">
-        <v>279</v>
-      </c>
-      <c r="E77" s="8" t="s">
+        <v>277</v>
+      </c>
+      <c r="E77" s="19" t="s">
+        <v>317</v>
+      </c>
+      <c r="F77" s="8" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A78" s="7" t="s">
         <v>65</v>
       </c>
@@ -2688,13 +3393,16 @@
         <v>149</v>
       </c>
       <c r="D78" s="19" t="s">
-        <v>278</v>
-      </c>
-      <c r="E78" s="8" t="s">
+        <v>276</v>
+      </c>
+      <c r="E78" s="19" t="s">
+        <v>317</v>
+      </c>
+      <c r="F78" s="8" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A79" s="7" t="s">
         <v>66</v>
       </c>
@@ -2705,13 +3413,16 @@
         <v>149</v>
       </c>
       <c r="D79" s="19" t="s">
-        <v>278</v>
-      </c>
-      <c r="E79" s="8" t="s">
+        <v>276</v>
+      </c>
+      <c r="E79" s="19" t="s">
+        <v>317</v>
+      </c>
+      <c r="F79" s="8" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A80" s="7" t="s">
         <v>143</v>
       </c>
@@ -2722,11 +3433,14 @@
       <c r="D80" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="E80" s="8" t="s">
+      <c r="E80" s="19" t="s">
+        <v>407</v>
+      </c>
+      <c r="F80" s="8" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="81" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A81" s="10" t="s">
         <v>146</v>
       </c>
@@ -2735,20 +3449,25 @@
       </c>
       <c r="C81" s="11"/>
       <c r="D81" s="21" t="s">
-        <v>277</v>
-      </c>
-      <c r="E81" s="12"/>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.15">
+        <v>275</v>
+      </c>
+      <c r="E81" s="19" t="s">
+        <v>317</v>
+      </c>
+      <c r="F81" s="12"/>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.15">
       <c r="D82" s="19"/>
-    </row>
-    <row r="83" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="E82" s="19"/>
+    </row>
+    <row r="83" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A83" s="30" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D83" s="19"/>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="E83" s="19"/>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A84" s="4" t="s">
         <v>62</v>
       </c>
@@ -2761,11 +3480,14 @@
       <c r="D84" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="E84" s="6" t="s">
+      <c r="E84" s="19" t="s">
+        <v>407</v>
+      </c>
+      <c r="F84" s="6" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A85" s="22" t="s">
         <v>121</v>
       </c>
@@ -2776,11 +3498,14 @@
       <c r="D85" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="E85" s="8" t="s">
+      <c r="E85" s="19" t="s">
+        <v>407</v>
+      </c>
+      <c r="F85" s="8" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A86" s="22" t="s">
         <v>122</v>
       </c>
@@ -2793,11 +3518,14 @@
       <c r="D86" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="E86" s="8" t="s">
+      <c r="E86" s="19" t="s">
+        <v>407</v>
+      </c>
+      <c r="F86" s="8" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A87" s="22" t="s">
         <v>123</v>
       </c>
@@ -2808,11 +3536,14 @@
       <c r="D87" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="E87" s="8" t="s">
+      <c r="E87" s="19" t="s">
+        <v>407</v>
+      </c>
+      <c r="F87" s="8" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A88" s="22" t="s">
         <v>124</v>
       </c>
@@ -2823,11 +3554,14 @@
       <c r="D88" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="E88" s="8" t="s">
+      <c r="E88" s="19" t="s">
+        <v>407</v>
+      </c>
+      <c r="F88" s="8" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A89" s="22" t="s">
         <v>125</v>
       </c>
@@ -2838,11 +3572,14 @@
       <c r="D89" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="E89" s="8" t="s">
+      <c r="E89" s="19" t="s">
+        <v>407</v>
+      </c>
+      <c r="F89" s="8" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A90" s="22" t="s">
         <v>143</v>
       </c>
@@ -2853,11 +3590,14 @@
       <c r="D90" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="E90" s="8" t="s">
+      <c r="E90" s="19" t="s">
+        <v>407</v>
+      </c>
+      <c r="F90" s="8" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="91" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A91" s="23" t="s">
         <v>173</v>
       </c>
@@ -2866,16 +3606,19 @@
       </c>
       <c r="C91" s="11"/>
       <c r="D91" s="21" t="s">
-        <v>281</v>
-      </c>
-      <c r="E91" s="12"/>
-    </row>
-    <row r="93" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+        <v>279</v>
+      </c>
+      <c r="E91" s="21" t="s">
+        <v>317</v>
+      </c>
+      <c r="F91" s="12"/>
+    </row>
+    <row r="93" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A93" s="30" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.15">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A94" s="26" t="s">
         <v>198</v>
       </c>
@@ -2888,11 +3631,14 @@
       <c r="D94" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="E94" s="6" t="s">
+      <c r="E94" s="19" t="s">
+        <v>407</v>
+      </c>
+      <c r="F94" s="6" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A95" s="22" t="s">
         <v>0</v>
       </c>
@@ -2905,11 +3651,14 @@
       <c r="D95" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="E95" s="8" t="s">
+      <c r="E95" s="19" t="s">
+        <v>407</v>
+      </c>
+      <c r="F95" s="8" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="96" spans="1:5" ht="15" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A96" s="22" t="s">
         <v>176</v>
       </c>
@@ -2922,11 +3671,14 @@
       <c r="D96" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="E96" s="8" t="s">
+      <c r="E96" s="19" t="s">
+        <v>407</v>
+      </c>
+      <c r="F96" s="8" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A97" s="22" t="s">
         <v>178</v>
       </c>
@@ -2939,11 +3691,14 @@
       <c r="D97" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="E97" s="8" t="s">
+      <c r="E97" s="19" t="s">
+        <v>407</v>
+      </c>
+      <c r="F97" s="8" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A98" s="22" t="s">
         <v>180</v>
       </c>
@@ -2956,11 +3711,14 @@
       <c r="D98" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="E98" s="8" t="s">
+      <c r="E98" s="19" t="s">
+        <v>407</v>
+      </c>
+      <c r="F98" s="8" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A99" s="22" t="s">
         <v>182</v>
       </c>
@@ -2973,11 +3731,14 @@
       <c r="D99" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="E99" s="8" t="s">
+      <c r="E99" s="19" t="s">
+        <v>407</v>
+      </c>
+      <c r="F99" s="8" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A100" s="22" t="s">
         <v>184</v>
       </c>
@@ -2990,11 +3751,14 @@
       <c r="D100" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="E100" s="8" t="s">
+      <c r="E100" s="19" t="s">
+        <v>407</v>
+      </c>
+      <c r="F100" s="8" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A101" s="22" t="s">
         <v>186</v>
       </c>
@@ -3007,11 +3771,14 @@
       <c r="D101" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="E101" s="8" t="s">
+      <c r="E101" s="19" t="s">
+        <v>407</v>
+      </c>
+      <c r="F101" s="8" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A102" s="22" t="s">
         <v>55</v>
       </c>
@@ -3022,11 +3789,14 @@
       <c r="D102" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="E102" s="29" t="s">
+      <c r="E102" s="19" t="s">
+        <v>407</v>
+      </c>
+      <c r="F102" s="29" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="103" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A103" s="23" t="s">
         <v>195</v>
       </c>
@@ -3035,16 +3805,19 @@
       </c>
       <c r="C103" s="11"/>
       <c r="D103" s="21" t="s">
-        <v>282</v>
-      </c>
-      <c r="E103" s="25"/>
-    </row>
-    <row r="105" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+        <v>280</v>
+      </c>
+      <c r="E103" s="19" t="s">
+        <v>407</v>
+      </c>
+      <c r="F103" s="25"/>
+    </row>
+    <row r="105" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A105" s="30" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.15">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A106" s="26" t="s">
         <v>208</v>
       </c>
@@ -3057,11 +3830,14 @@
       <c r="D106" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="E106" s="6" t="s">
+      <c r="E106" s="19" t="s">
+        <v>407</v>
+      </c>
+      <c r="F106" s="6" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A107" s="22" t="s">
         <v>199</v>
       </c>
@@ -3074,11 +3850,14 @@
       <c r="D107" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="E107" s="8" t="s">
+      <c r="E107" s="19" t="s">
+        <v>407</v>
+      </c>
+      <c r="F107" s="8" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A108" s="22" t="s">
         <v>211</v>
       </c>
@@ -3089,9 +3868,10 @@
       <c r="D108" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="E108" s="8"/>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="E108" s="19"/>
+      <c r="F108" s="8"/>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A109" s="22" t="s">
         <v>201</v>
       </c>
@@ -3102,9 +3882,10 @@
       <c r="D109" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="E109" s="8"/>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="E109" s="19"/>
+      <c r="F109" s="8"/>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A110" s="22" t="s">
         <v>202</v>
       </c>
@@ -3115,9 +3896,10 @@
       <c r="D110" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="E110" s="8"/>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="E110" s="19"/>
+      <c r="F110" s="8"/>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A111" s="22" t="s">
         <v>204</v>
       </c>
@@ -3128,9 +3910,10 @@
       <c r="D111" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="E111" s="8"/>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="E111" s="19"/>
+      <c r="F111" s="8"/>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A112" s="22" t="s">
         <v>205</v>
       </c>
@@ -3141,9 +3924,10 @@
       <c r="D112" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="E112" s="8"/>
-    </row>
-    <row r="113" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="E112" s="19"/>
+      <c r="F112" s="8"/>
+    </row>
+    <row r="113" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A113" s="23" t="s">
         <v>207</v>
       </c>
@@ -3154,14 +3938,15 @@
       <c r="D113" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="E113" s="12"/>
-    </row>
-    <row r="115" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="E113" s="21"/>
+      <c r="F113" s="12"/>
+    </row>
+    <row r="115" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A115" s="30" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.15">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A116" s="26" t="s">
         <v>212</v>
       </c>
@@ -3170,13 +3955,14 @@
       </c>
       <c r="C116" s="5"/>
       <c r="D116" s="20" t="s">
-        <v>268</v>
-      </c>
-      <c r="E116" s="28" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="E116" s="20"/>
+      <c r="F116" s="28" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A117" s="22" t="s">
         <v>214</v>
       </c>
@@ -3185,11 +3971,12 @@
       </c>
       <c r="C117" s="2"/>
       <c r="D117" s="19" t="s">
-        <v>249</v>
-      </c>
-      <c r="E117" s="8"/>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.15">
+        <v>247</v>
+      </c>
+      <c r="E117" s="19"/>
+      <c r="F117" s="8"/>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A118" s="22" t="s">
         <v>216</v>
       </c>
@@ -3200,9 +3987,10 @@
       <c r="D118" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="E118" s="8"/>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="E118" s="19"/>
+      <c r="F118" s="8"/>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A119" s="22" t="s">
         <v>218</v>
       </c>
@@ -3211,11 +3999,12 @@
       </c>
       <c r="C119" s="2"/>
       <c r="D119" s="19" t="s">
-        <v>249</v>
-      </c>
-      <c r="E119" s="8"/>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.15">
+        <v>247</v>
+      </c>
+      <c r="E119" s="19"/>
+      <c r="F119" s="8"/>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A120" s="22" t="s">
         <v>220</v>
       </c>
@@ -3224,11 +4013,12 @@
       </c>
       <c r="C120" s="2"/>
       <c r="D120" s="19" t="s">
-        <v>250</v>
-      </c>
-      <c r="E120" s="8"/>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.15">
+        <v>248</v>
+      </c>
+      <c r="E120" s="19"/>
+      <c r="F120" s="8"/>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A121" s="22" t="s">
         <v>222</v>
       </c>
@@ -3237,11 +4027,12 @@
       </c>
       <c r="C121" s="2"/>
       <c r="D121" s="19" t="s">
-        <v>249</v>
-      </c>
-      <c r="E121" s="8"/>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.15">
+        <v>247</v>
+      </c>
+      <c r="E121" s="19"/>
+      <c r="F121" s="8"/>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A122" s="22" t="s">
         <v>224</v>
       </c>
@@ -3250,127 +4041,199 @@
       </c>
       <c r="C122" s="2"/>
       <c r="D122" s="19" t="s">
+        <v>240</v>
+      </c>
+      <c r="E122" s="19"/>
+      <c r="F122" s="8" t="s">
         <v>242</v>
       </c>
-      <c r="E122" s="8" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.15">
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A123" s="22" t="s">
         <v>226</v>
       </c>
       <c r="B123" s="18" t="s">
-        <v>227</v>
+        <v>285</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D123" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="E123" s="8"/>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="E123" s="19" t="s">
+        <v>317</v>
+      </c>
+      <c r="F123" s="8"/>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A124" s="22" t="s">
+        <v>227</v>
+      </c>
+      <c r="B124" s="18" t="s">
         <v>228</v>
       </c>
-      <c r="B124" s="18" t="s">
-        <v>229</v>
-      </c>
       <c r="C124" s="2" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D124" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="E124" s="8" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="E124" s="19" t="s">
+        <v>407</v>
+      </c>
+      <c r="F124" s="8" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A125" s="22" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B125" s="18" t="s">
-        <v>231</v>
+        <v>286</v>
       </c>
       <c r="C125" s="2"/>
       <c r="D125" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="E125" s="8"/>
-    </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="E125" s="19" t="s">
+        <v>341</v>
+      </c>
+      <c r="F125" s="8"/>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A126" s="22" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B126" s="18" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C126" s="2"/>
       <c r="D126" s="19" t="s">
-        <v>243</v>
-      </c>
-      <c r="E126" s="29" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.15">
+        <v>241</v>
+      </c>
+      <c r="E126" s="19"/>
+      <c r="F126" s="29" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A127" s="22" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B127" s="18" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C127" s="2"/>
       <c r="D127" s="19" t="s">
-        <v>242</v>
-      </c>
-      <c r="E127" s="29" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.15">
+        <v>240</v>
+      </c>
+      <c r="E127" s="19"/>
+      <c r="F127" s="29" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A128" s="22" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B128" s="18" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C128" s="2"/>
       <c r="D128" s="19" t="s">
-        <v>242</v>
-      </c>
-      <c r="E128" s="29" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.15">
+        <v>240</v>
+      </c>
+      <c r="E128" s="19"/>
+      <c r="F128" s="29" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A129" s="22" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B129" s="18" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C129" s="2"/>
       <c r="D129" s="19" t="s">
-        <v>249</v>
-      </c>
-      <c r="E129" s="8"/>
-    </row>
-    <row r="130" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+        <v>247</v>
+      </c>
+      <c r="E129" s="19"/>
+      <c r="F129" s="8"/>
+    </row>
+    <row r="130" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A130" s="23" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B130" s="24" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C130" s="11"/>
       <c r="D130" s="21" t="s">
-        <v>249</v>
-      </c>
-      <c r="E130" s="12"/>
+        <v>247</v>
+      </c>
+      <c r="E130" s="21"/>
+      <c r="F130" s="12"/>
+    </row>
+    <row r="132" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="A132" s="40" t="s">
+        <v>410</v>
+      </c>
+      <c r="B132" s="44" t="s">
+        <v>417</v>
+      </c>
+      <c r="C132" s="43"/>
+      <c r="D132" s="43"/>
+      <c r="E132" s="45" t="s">
+        <v>408</v>
+      </c>
+      <c r="F132" s="42" t="s">
+        <v>411</v>
+      </c>
+      <c r="G132" s="41" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="A133" s="40" t="s">
+        <v>409</v>
+      </c>
+      <c r="B133" s="44" t="s">
+        <v>418</v>
+      </c>
+      <c r="C133" s="43"/>
+      <c r="D133" s="43"/>
+      <c r="E133" s="45" t="s">
+        <v>408</v>
+      </c>
+      <c r="F133" s="42" t="s">
+        <v>412</v>
+      </c>
+      <c r="G133" s="41" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="A134" s="43" t="s">
+        <v>420</v>
+      </c>
+      <c r="B134" s="44" t="s">
+        <v>419</v>
+      </c>
+      <c r="C134" s="43"/>
+      <c r="D134" s="43"/>
+      <c r="E134" s="45" t="s">
+        <v>408</v>
+      </c>
+      <c r="F134" s="42" t="s">
+        <v>413</v>
+      </c>
+      <c r="G134" s="41" t="s">
+        <v>416</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -3381,12 +4244,204 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B1:B37"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="3.75" customWidth="1"/>
+    <col min="2" max="2" width="32.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B1" s="37" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B2" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B3" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B4" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B5" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B6" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B7" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B8" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B9" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B10" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B11" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B12" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="13" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B13" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="14" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B14" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="15" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B15" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="16" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B16" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B17" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B18" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B19" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B20" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B21" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B22" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B23" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B24" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B25" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B26" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B27" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B28" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B29" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B30" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B31" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="32" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B32" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B33" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B34" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B35" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B36" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B37" t="s">
+        <v>377</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3394,13 +4449,390 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B28"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="21.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A1" s="37" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A6" s="37" t="s">
+        <v>382</v>
+      </c>
+      <c r="B6" s="37"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A7" s="37" t="s">
+        <v>383</v>
+      </c>
+      <c r="B7" s="37"/>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A15" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A16" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A18" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A19" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A20" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A21" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A22" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A23" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A24" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A25" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A26" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A27" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A28" t="s">
+        <v>404</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="7.75" style="31" customWidth="1"/>
+    <col min="2" max="2" width="67.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A1" s="34" t="s">
+        <v>288</v>
+      </c>
+      <c r="B1" s="34" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A2" s="33" t="s">
+        <v>290</v>
+      </c>
+      <c r="B2" s="32" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3" s="35" t="s">
+        <v>292</v>
+      </c>
+      <c r="B3" s="32" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A4" s="33" t="s">
+        <v>294</v>
+      </c>
+      <c r="B4" s="32" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A5" s="33" t="s">
+        <v>296</v>
+      </c>
+      <c r="B5" s="32" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A6" s="33" t="s">
+        <v>298</v>
+      </c>
+      <c r="B6" s="32" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A7" s="33" t="s">
+        <v>300</v>
+      </c>
+      <c r="B7" s="32" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A8" s="33" t="s">
+        <v>302</v>
+      </c>
+      <c r="B8" s="32" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A9" s="35" t="s">
+        <v>304</v>
+      </c>
+      <c r="B9" s="32" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A10" s="35" t="s">
+        <v>306</v>
+      </c>
+      <c r="B10" s="32" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A11" s="33" t="s">
+        <v>308</v>
+      </c>
+      <c r="B11" s="32" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A12" s="35" t="s">
+        <v>310</v>
+      </c>
+      <c r="B12" s="32" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A13" s="35" t="s">
+        <v>312</v>
+      </c>
+      <c r="B13" s="32" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A14" s="33" t="s">
+        <v>314</v>
+      </c>
+      <c r="B14" s="32" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A15" s="33" t="s">
+        <v>315</v>
+      </c>
+      <c r="B15" s="32" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A16" s="33" t="s">
+        <v>316</v>
+      </c>
+      <c r="B16" s="32" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A17" s="35" t="s">
+        <v>317</v>
+      </c>
+      <c r="B17" s="32" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A18" s="33" t="s">
+        <v>318</v>
+      </c>
+      <c r="B18" s="32" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A19" s="33" t="s">
+        <v>319</v>
+      </c>
+      <c r="B19" s="32" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A20" s="33" t="s">
+        <v>320</v>
+      </c>
+      <c r="B20" s="32" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A21" s="33" t="s">
+        <v>321</v>
+      </c>
+      <c r="B21" s="32" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A22" s="33" t="s">
+        <v>322</v>
+      </c>
+      <c r="B22" s="32" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A23" s="33" t="s">
+        <v>323</v>
+      </c>
+      <c r="B23" s="32" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A24" s="33" t="s">
+        <v>324</v>
+      </c>
+      <c r="B24" s="32" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A25" s="33" t="s">
+        <v>325</v>
+      </c>
+      <c r="B25" s="32" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A26" s="33" t="s">
+        <v>326</v>
+      </c>
+      <c r="B26" s="32" t="s">
+        <v>339</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>